--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1130,7 +1130,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
 </t>
   </si>
   <si>
@@ -1813,7 +1813,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.3515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.13671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7983,13 +7983,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -11607,13 +11607,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -15231,13 +15231,13 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>77</v>
@@ -18855,13 +18855,13 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>77</v>
@@ -22479,13 +22479,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleReferenciarLE.xlsx
+++ b/StructureDefinition-BundleReferenciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
